--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/OKLAHOMA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/OKLAHOMA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1109"/>
+  <dimension ref="A1:D1103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C33">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C54">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C57">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C64">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C91">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C100">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C102">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C121">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C122">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C123">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C129">
@@ -2289,7 +2289,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C146">
@@ -2489,7 +2489,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2546,7 +2546,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C165">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C180">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C194">
@@ -2967,7 +2967,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C197">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C204">
@@ -3071,7 +3071,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C205">
@@ -3084,7 +3084,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C206">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C207">
@@ -3227,12 +3227,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C218">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C222">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C227">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C232">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C236">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C248">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C254">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C255">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C256">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C266">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C270">
@@ -3934,7 +3934,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C271">
@@ -3947,7 +3947,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C272">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C282">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C283">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C284">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C291">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C295">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C303">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C307">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C309">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C311">
@@ -4472,20 +4472,20 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C312">
         <v>93</v>
       </c>
       <c r="D312">
-        <v>0.009153543307086615</v>
+        <v>0.009153543307086617</v>
       </c>
     </row>
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C313">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C317">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C324">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C329">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C330">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C335">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C339">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C343">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C349">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C350">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C353">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C355">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C368">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C371">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C373">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C374">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C384">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C391">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C393">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C396">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C400">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C401">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C402">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C404">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C405">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C406">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C409">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C414">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C415">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C416">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C419">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C421">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C426">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C431">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C435">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C439">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C444">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C450">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C454">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C458">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C462">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C467">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C468">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C471">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C472">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C475">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C476">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C478">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C479">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C485">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C488">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C491">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C492">
@@ -7092,7 +7092,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C512">
@@ -7118,7 +7118,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C514">
@@ -7742,7 +7742,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C562">
@@ -7994,7 +7994,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C581">
@@ -8098,7 +8098,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C589">
@@ -8163,7 +8163,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C594">
@@ -8259,7 +8259,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C601">
@@ -8285,7 +8285,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C603">
@@ -8363,7 +8363,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C609">
@@ -8563,7 +8563,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C624">
@@ -8609,13 +8609,13 @@
         <v>99</v>
       </c>
       <c r="D627">
-        <v>0.009744094488188977</v>
+        <v>0.009744094488188975</v>
       </c>
     </row>
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C628">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C632">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C636">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C643">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C645">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C649">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C652">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C659">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C666">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C683">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C701">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C722">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C726">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C729">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C731">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C741">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C747">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C756">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C759">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C765">
@@ -10510,7 +10510,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C773">
@@ -10536,7 +10536,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C775">
@@ -10588,7 +10588,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C779">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C781">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C784">
@@ -10757,7 +10757,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C792">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C797">
@@ -10853,7 +10853,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C799">
@@ -10918,7 +10918,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C804">
@@ -10931,7 +10931,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C805">
@@ -10944,7 +10944,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C806">
@@ -10970,7 +10970,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C808">
@@ -11123,7 +11123,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C819">
@@ -11201,7 +11201,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C825">
@@ -11292,7 +11292,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C832">
@@ -11357,7 +11357,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C837">
@@ -11377,7 +11377,7 @@
         <v>93</v>
       </c>
       <c r="D838">
-        <v>0.009153543307086615</v>
+        <v>0.009153543307086617</v>
       </c>
     </row>
     <row r="839">
@@ -11422,7 +11422,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C842">
@@ -11448,7 +11448,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C844">
@@ -11539,7 +11539,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C851">
@@ -11552,7 +11552,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C852">
@@ -11565,7 +11565,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C853">
@@ -11578,7 +11578,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C854">
@@ -11591,7 +11591,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C855">
@@ -11604,7 +11604,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C856">
@@ -12030,7 +12030,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C888">
@@ -12217,7 +12217,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C902">
@@ -12599,7 +12599,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C931">
@@ -12708,7 +12708,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C939">
@@ -12721,7 +12721,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C940">
@@ -12773,7 +12773,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C944">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C954">
@@ -12986,7 +12986,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C960">
@@ -13012,7 +13012,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C962">
@@ -13038,7 +13038,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C964">
@@ -13077,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C967">
@@ -13181,7 +13181,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C975">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C983">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C984">
@@ -13324,7 +13324,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C986">
@@ -13337,7 +13337,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C987">
@@ -13454,7 +13454,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C996">
@@ -13467,7 +13467,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C997">
@@ -13493,7 +13493,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C999">
@@ -13532,7 +13532,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1002">
@@ -13597,7 +13597,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1007">
@@ -13636,7 +13636,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1010">
@@ -13675,7 +13675,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1013">
@@ -13753,7 +13753,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1019">
@@ -13844,7 +13844,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1026">
@@ -14026,7 +14026,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1040">
@@ -14091,7 +14091,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1045">
@@ -14257,7 +14257,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1057">
@@ -14283,7 +14283,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1059">
@@ -14413,7 +14413,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1069">
@@ -14433,7 +14433,7 @@
         <v>98</v>
       </c>
       <c r="D1070">
-        <v>0.009645669291338583</v>
+        <v>0.009645669291338584</v>
       </c>
     </row>
     <row r="1071">
@@ -14556,7 +14556,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1080">
@@ -14569,7 +14569,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1081">
@@ -14582,7 +14582,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1082">
@@ -14712,7 +14712,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1092">
@@ -14725,7 +14725,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1093">
@@ -14764,7 +14764,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1096">
@@ -14863,41 +14863,6 @@
       </c>
       <c r="D1103">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
